--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="4105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="4106">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12342,6 +12342,9 @@
   </si>
   <si>
     <t>Plot Continuous &amp; Discrete Data Together</t>
+  </si>
+  <si>
+    <t>Quantifying The Drivers and Impacts of Natural Disturbance Events – The 2013 Colorado Floods</t>
   </si>
 </sst>
 </file>
@@ -12666,7 +12669,7 @@
   <dimension ref="A1:B4001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13519,6 +13522,9 @@
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="B106" t="s">
+        <v>4105</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="4106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="4107">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12345,19 +12345,27 @@
   </si>
   <si>
     <t>Quantifying The Drivers and Impacts of Natural Disturbance Events – The 2013 Colorado Floods</t>
+  </si>
+  <si>
+    <t>Data Management using National Ecological Observatory Network’s (NEON) Small Mammal Data with Accompanying Lesson on Mark Recapture Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12380,12 +12388,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12668,8 +12677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13530,6 +13539,9 @@
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="B107" s="3" t="s">
+        <v>4106</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="-4540" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="5740" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="4107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="4108">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12348,6 +12348,9 @@
   </si>
   <si>
     <t>Data Management using National Ecological Observatory Network’s (NEON) Small Mammal Data with Accompanying Lesson on Mark Recapture Analysis</t>
+  </si>
+  <si>
+    <t>Git 07: Updating Your Repo by Setting Up a Remote</t>
   </si>
 </sst>
 </file>
@@ -12677,8 +12680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13547,6 +13550,9 @@
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="B108" t="s">
+        <v>4107</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="5740" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="4108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="4110">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12351,6 +12351,12 @@
   </si>
   <si>
     <t>Git 07: Updating Your Repo by Setting Up a Remote</t>
+  </si>
+  <si>
+    <t>Data Institute Activity: Calculate Index of Interest</t>
+  </si>
+  <si>
+    <t>NEON AOP Hyperspectral Data in HDF5 format with Python</t>
   </si>
 </sst>
 </file>
@@ -12680,8 +12686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13558,10 +13564,16 @@
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109" t="s">
+        <v>4108</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4109</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12687,7 +12687,7 @@
   <dimension ref="A1:B4001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="4110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="4111">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12357,6 +12357,9 @@
   </si>
   <si>
     <t>NEON AOP Hyperspectral Data in HDF5 format with Python</t>
+  </si>
+  <si>
+    <t>Spatial Intro 00: Answer a Spatio-temporal Research Question with Data</t>
   </si>
 </sst>
 </file>
@@ -12687,7 +12690,7 @@
   <dimension ref="A1:B4001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13580,6 +13583,9 @@
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111" t="s">
+        <v>4110</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="4111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="4112">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12360,6 +12363,9 @@
   </si>
   <si>
     <t>Spatial Intro 00: Answer a Spatio-temporal Research Question with Data</t>
+  </si>
+  <si>
+    <t>Working With NEON Data in Spreadsheets: Surface Water Chemistry Data</t>
   </si>
 </sst>
 </file>
@@ -12689,8 +12695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13591,6 +13597,9 @@
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="B112" t="s">
+        <v>4111</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="4112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="4114">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12366,6 +12366,12 @@
   </si>
   <si>
     <t>Working With NEON Data in Spreadsheets: Surface Water Chemistry Data</t>
+  </si>
+  <si>
+    <t>Introduction to Loops and Conditionals for Use with the NEON API</t>
+  </si>
+  <si>
+    <t>Using Loops with the NEON API</t>
   </si>
 </sst>
 </file>
@@ -12695,8 +12701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13601,82 +13607,88 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="1180" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="4114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="4120">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12372,6 +12372,24 @@
   </si>
   <si>
     <t>Using Loops with the NEON API</t>
+  </si>
+  <si>
+    <t>Calculate NDVI in Python</t>
+  </si>
+  <si>
+    <t>Using SciKit for Support Vector Machine (SVM) Classification with Python</t>
+  </si>
+  <si>
+    <t>Classification of Hyperspectral Data with Principal Components Analysis (PCA) in Python</t>
+  </si>
+  <si>
+    <t>Classification of Hyperspectral Data with Ordinary Least Squares in Python</t>
+  </si>
+  <si>
+    <t>Band Stacking, RGB &amp; False Color Images, and Interactive Widgets in Python</t>
+  </si>
+  <si>
+    <t>Plot a Spectral Signature in Python</t>
   </si>
 </sst>
 </file>
@@ -12701,8 +12719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13627,30 +13645,48 @@
       <c r="A115" t="s">
         <v>113</v>
       </c>
+      <c r="B115" t="s">
+        <v>4114</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
+      <c r="B116" t="s">
+        <v>4115</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="B117" t="s">
+        <v>4116</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="B118" t="s">
+        <v>4117</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="B119" t="s">
+        <v>4118</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="4120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="4124">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12390,6 +12390,18 @@
   </si>
   <si>
     <t>Plot a Spectral Signature in Python</t>
+  </si>
+  <si>
+    <t>Calculate Vegetation Biomass from LiDAR Data in Python</t>
+  </si>
+  <si>
+    <t>Classify a Raster Using Threshold Values in Python</t>
+  </si>
+  <si>
+    <t>Create a Hillshade from a Terrain Raster in Python</t>
+  </si>
+  <si>
+    <t>Mask a Raster Using Threshold Values in Python</t>
   </si>
 </sst>
 </file>
@@ -12719,8 +12731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13693,20 +13705,32 @@
       <c r="A121" t="s">
         <v>119</v>
       </c>
+      <c r="B121" t="s">
+        <v>4120</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
+      <c r="B122" t="s">
+        <v>4121</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B123" t="s">
+        <v>4122</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">

--- a/processing_code/TutorialUniqueIDRecord.xlsx
+++ b/processing_code/TutorialUniqueIDRecord.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="4124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="4127">
   <si>
     <t>53641e3826d3401abc682d5896010539</t>
   </si>
@@ -12402,6 +12402,15 @@
   </si>
   <si>
     <t>Mask a Raster Using Threshold Values in Python</t>
+  </si>
+  <si>
+    <t>Assessing Spectrometer Accuracy using Validation Tarps with Python</t>
+  </si>
+  <si>
+    <t>Hyperspectral Variation Uncertainty Analysis in Python</t>
+  </si>
+  <si>
+    <t>Exploring Uncertainty in LiDAR Data</t>
   </si>
 </sst>
 </file>
@@ -12731,8 +12740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13737,15 +13746,24 @@
       <c r="A125" t="s">
         <v>123</v>
       </c>
+      <c r="B125" t="s">
+        <v>4124</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
+      <c r="B126" t="s">
+        <v>4125</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
